--- a/items/warm_up_audio.xlsx
+++ b/items/warm_up_audio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Maik/Library/Mobile Documents/com~apple~CloudDocs/Studium/xx. Python/GUI_experiment/items/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CC85C3-473E-EE41-B8AA-BDDBA82A974A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF983EA-1A08-BF4A-846C-3C5AE5EDCDF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
-  <si>
-    <t>Table 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>a</t>
   </si>
@@ -32,6 +29,18 @@
   </si>
   <si>
     <t>items/02n_intro.wav</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>sub_exp</t>
+  </si>
+  <si>
+    <t>item_number</t>
+  </si>
+  <si>
+    <t>condition</t>
   </si>
 </sst>
 </file>
@@ -45,15 +54,17 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -136,7 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -148,8 +159,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1312,7 +1323,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1322,15 +1333,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -1339,12 +1356,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -1353,13 +1370,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
